--- a/Database_Files/Table_Schema.xlsx
+++ b/Database_Files/Table_Schema.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchen\Desktop\BBallDB_all_the_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchen\Desktop\School-Basketball-Team-Analysis\Database_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A19D9-FD9A-47ED-8072-CABA45FE0D8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B53B28-792F-4EDF-842B-AFA0E962F28A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2210D897-7BB3-42AA-9358-6387D92DE3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="5664" xr2:uid="{2210D897-7BB3-42AA-9358-6387D92DE3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Renaming_Attributes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
   <si>
     <t>Player_Average_Table</t>
   </si>
@@ -404,6 +404,150 @@
   </si>
   <si>
     <t>Team_Game_Status_ID</t>
+  </si>
+  <si>
+    <t>Team_Cumulative</t>
+  </si>
+  <si>
+    <t>Team_Cumulative_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  StlPos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Blk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TtlReb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  OffReb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DefReb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSTexPts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ast </t>
+  </si>
+  <si>
+    <t>Stl</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Line_Up</t>
+  </si>
+  <si>
+    <t>Session_ID</t>
+  </si>
+  <si>
+    <t>LineUp_ID</t>
+  </si>
+  <si>
+    <t>Lineup_Score</t>
+  </si>
+  <si>
+    <t>Oppo_Score</t>
+  </si>
+  <si>
+    <t>Oppo_FGA</t>
+  </si>
+  <si>
+    <t>Oppo_FGmade</t>
+  </si>
+  <si>
+    <t>Oppo_FGmiss</t>
+  </si>
+  <si>
+    <t>Oppo_Two_FGA</t>
+  </si>
+  <si>
+    <t>Oppo_Two_FGMade</t>
+  </si>
+  <si>
+    <t>Oppo_Two_Fgmiss</t>
+  </si>
+  <si>
+    <t>Oppo_Three_FGA</t>
+  </si>
+  <si>
+    <t>Oppo_Three_FGMade</t>
+  </si>
+  <si>
+    <t>Oppo_Three_Fgmiss</t>
+  </si>
+  <si>
+    <t>Oppo_DefReb</t>
+  </si>
+  <si>
+    <t>Oppo_OffReb</t>
+  </si>
+  <si>
+    <t>Oppo_TtlReb</t>
+  </si>
+  <si>
+    <t>Oppo_FTA</t>
+  </si>
+  <si>
+    <t>Oppo_Ftmiss</t>
+  </si>
+  <si>
+    <t>Oppo_FTMade</t>
+  </si>
+  <si>
+    <t>Oppo_Ast</t>
+  </si>
+  <si>
+    <t>Oppo_Stl</t>
+  </si>
+  <si>
+    <t>FGMade</t>
+  </si>
+  <si>
+    <t>FGmiss</t>
+  </si>
+  <si>
+    <t>Two_FGA</t>
+  </si>
+  <si>
+    <t>Two_FGMade</t>
+  </si>
+  <si>
+    <t>Two_FGmiss</t>
+  </si>
+  <si>
+    <t>Three_FGA</t>
+  </si>
+  <si>
+    <t>Three_FGMade</t>
+  </si>
+  <si>
+    <t>Three_Fgmiss</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>FTMade</t>
+  </si>
+  <si>
+    <t>FTmiss</t>
+  </si>
+  <si>
+    <t>(weak entity)</t>
+  </si>
+  <si>
+    <t>Game_Status_ID</t>
+  </si>
+  <si>
+    <t>Plus_Minus</t>
   </si>
 </sst>
 </file>
@@ -812,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915157A-46E4-424C-BD68-C62B3102DF57}">
-  <dimension ref="A1:AX25"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +973,7 @@
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
@@ -838,22 +982,23 @@
     <col min="17" max="17" width="14.5546875" customWidth="1"/>
     <col min="18" max="18" width="35.6640625" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="31" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23.5546875" bestFit="1" customWidth="1"/>
@@ -1346,6 +1491,266 @@
         <v>94</v>
       </c>
     </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>131</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" t="s">
+        <v>116</v>
+      </c>
+      <c r="X28" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" t="s">
+        <v>146</v>
+      </c>
+      <c r="O31" t="s">
+        <v>147</v>
+      </c>
+      <c r="P31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" t="s">
+        <v>150</v>
+      </c>
+      <c r="S31" t="s">
+        <v>151</v>
+      </c>
+      <c r="T31" t="s">
+        <v>152</v>
+      </c>
+      <c r="U31" t="s">
+        <v>153</v>
+      </c>
+      <c r="V31" t="s">
+        <v>154</v>
+      </c>
+      <c r="W31" t="s">
+        <v>155</v>
+      </c>
+      <c r="X31" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1356,7 +1761,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database_Files/Table_Schema.xlsx
+++ b/Database_Files/Table_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchen\Desktop\School-Basketball-Team-Analysis\Database_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B53B28-792F-4EDF-842B-AFA0E962F28A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FD1B6A-BB61-4592-9A52-33D0AD25933C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="5664" xr2:uid="{2210D897-7BB3-42AA-9358-6387D92DE3D4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="179">
   <si>
     <t>Player_Average_Table</t>
   </si>
@@ -548,13 +548,31 @@
   </si>
   <si>
     <t>Plus_Minus</t>
+  </si>
+  <si>
+    <t>Session_Table</t>
+  </si>
+  <si>
+    <t>Session_Name</t>
+  </si>
+  <si>
+    <t>Format_Table</t>
+  </si>
+  <si>
+    <t>Format_Name</t>
+  </si>
+  <si>
+    <t>Team_Game_Status</t>
+  </si>
+  <si>
+    <t>Team_Game_Status_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +600,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +637,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -622,14 +652,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -638,10 +669,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Foreign_Key" xfId="4" xr:uid="{36CAA670-A417-4F05-B8F7-2BB3E38A3C19}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Primary_Key" xfId="3" xr:uid="{070EC5A1-3E12-4AB8-9DEF-FB87AAE067B2}"/>
@@ -956,16 +990,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915157A-46E4-424C-BD68-C62B3102DF57}">
-  <dimension ref="A1:AX31"/>
+  <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -1022,12 +1056,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1089,7 +1123,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1102,7 +1136,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1118,7 +1152,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1131,7 +1165,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1198,7 +1232,7 @@
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1211,7 +1245,7 @@
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1368,7 +1402,7 @@
       </c>
     </row>
     <row r="24" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1492,7 +1526,7 @@
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1610,7 +1644,7 @@
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B30" t="s">
@@ -1749,6 +1783,45 @@
       </c>
       <c r="AR31" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Files/Table_Schema.xlsx
+++ b/Database_Files/Table_Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchen\Desktop\School-Basketball-Team-Analysis\Database_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FD1B6A-BB61-4592-9A52-33D0AD25933C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96A84B-DCB0-4FBA-B98F-9FC965CDEF3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="5664" xr2:uid="{2210D897-7BB3-42AA-9358-6387D92DE3D4}"/>
   </bookViews>
@@ -993,7 +993,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
